--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/code-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/code-message-category-lov.xlsx
@@ -2031,7 +2031,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>RDUCM_MEMBER</t>
+    <t>RDUCM_MEMBER_PROJECT</t>
   </si>
   <si>
     <t>代码库管理通知</t>
@@ -2194,6 +2194,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2208,39 +2254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2254,34 +2269,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2293,15 +2308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2309,6 +2318,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2324,22 +2340,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2421,7 +2421,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,19 +2529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,43 +2547,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,31 +2583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2547,61 +2595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,6 +2708,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2732,21 +2771,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2758,30 +2782,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2808,148 +2808,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3659,7 +3659,7 @@
   <sheetPr/>
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
